--- a/trend_results/Rivers/MangatewainuiatHardies_39087d25ac.xlsx
+++ b/trend_results/Rivers/MangatewainuiatHardies_39087d25ac.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.356211124939333</v>
+        <v>0.643788875060667</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.781816366122474</v>
+        <v>0.218183633877526</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0213497615087408</v>
+        <v>0.978650238491259</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.0478664241566194</v>
+        <v>0.952133575843381</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">

--- a/trend_results/Rivers/MangatewainuiatHardies_39087d25ac.xlsx
+++ b/trend_results/Rivers/MangatewainuiatHardies_39087d25ac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.998679749363149</v>
+        <v>0.704190307624912</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0178571428571429</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="H2" t="n">
-        <v>0.714285714285714</v>
+        <v>0.745098039215686</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="K2" t="n">
-        <v>0.350761441605391</v>
+        <v>0.0823872180451128</v>
       </c>
       <c r="L2" t="n">
-        <v>0.173027959259984</v>
+        <v>-0.181832098271984</v>
       </c>
       <c r="M2" t="n">
-        <v>0.530844742254909</v>
+        <v>0.351418993558013</v>
       </c>
       <c r="N2" t="n">
-        <v>20.2752278384619</v>
+        <v>4.68109193438141</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -660,17 +660,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.643788875060667</v>
+        <v>0.5</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.913793103448276</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -679,16 +679,16 @@
         <v>10.195</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0551888736263733</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0509540811987743</v>
+        <v>-0.0413067686455214</v>
       </c>
       <c r="M3" t="n">
-        <v>0.136399135131443</v>
+        <v>0.0801750859848981</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5413327476838971</v>
+        <v>0</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -747,39 +747,39 @@
         <v>5</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.278208526154128</v>
+        <v>0.346975731452531</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.372881355932203</v>
+        <v>0.389830508474576</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.023</v>
+        <v>0.021</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0003720316340338</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0009944669585461</v>
+        <v>-0.0007051158301158</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0012633929877653</v>
+        <v>0.0011582793724222</v>
       </c>
       <c r="N4" t="n">
-        <v>1.61752884362546</v>
+        <v>0</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.667908339253463</v>
+        <v>0.442467978937887</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0169491525423729</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.779661016949153</v>
+        <v>0.796610169491525</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="K5" t="n">
-        <v>-3.99462323390895</v>
+        <v>3.51201923076923</v>
       </c>
       <c r="L5" t="n">
-        <v>-12.5364804556277</v>
+        <v>-7.86343392947883</v>
       </c>
       <c r="M5" t="n">
-        <v>18.5127079960438</v>
+        <v>11.96550667365</v>
       </c>
       <c r="N5" t="n">
-        <v>-2.49663952119309</v>
+        <v>2.66062062937063</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.436043459401332</v>
+        <v>0.236585934683938</v>
       </c>
       <c r="G6" t="n">
-        <v>0.903846153846154</v>
+        <v>0.87037037037037</v>
       </c>
       <c r="H6" t="n">
-        <v>0.288461538461538</v>
+        <v>0.259259259259259</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
         <v>0.005</v>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,10 +1028,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.953293123448919</v>
+        <v>0.979187104404</v>
       </c>
       <c r="G7" t="n">
-        <v>0.508474576271186</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="H7" t="n">
         <v>0.11864406779661</v>
@@ -1115,35 +1115,35 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.470929917461827</v>
+        <v>0.0036345044985847</v>
       </c>
       <c r="G8" t="n">
-        <v>0.11864406779661</v>
+        <v>0.101694915254237</v>
       </c>
       <c r="H8" t="n">
-        <v>0.847457627118644</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.211</v>
+        <v>0.226</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.0355540017804648</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0169858906126003</v>
+        <v>0.0185804043614651</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0158959220103757</v>
+        <v>0.0614085079043877</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>15.7318591948959</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,13 +1210,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.218183633877526</v>
+        <v>0.0075254702103699</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.684210526315789</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1225,16 +1225,16 @@
         <v>7.9</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0243832054333005</v>
+        <v>-0.06522321428571549</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.07132208297443619</v>
+        <v>-0.104357142857143</v>
       </c>
       <c r="M9" t="n">
-        <v>0.023717532467532</v>
+        <v>-0.0203774664920378</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.308648170041778</v>
+        <v>-0.82561030741412</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.557833492070026</v>
+        <v>0.0055558404292693</v>
       </c>
       <c r="G10" t="n">
         <v>0.0338983050847458</v>
       </c>
       <c r="H10" t="n">
-        <v>0.898305084745763</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0.231</v>
+        <v>0.235</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0019807229495571</v>
+        <v>0.0380886847527473</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0160278599301181</v>
+        <v>0.0079548815496066</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0111296302581043</v>
+        <v>0.0600797049739343</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.857455822319127</v>
+        <v>16.2079509586159</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,46 +1373,46 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.87570083092039</v>
+        <v>0.0475987980218213</v>
       </c>
       <c r="G11" t="n">
-        <v>0.406779661016949</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.338983050847458</v>
+        <v>0.6610169491525421</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>0.36</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.0437862137862138</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.649616976965512</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.07483526266172311</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>12.1628371628372</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.642318314877808</v>
+        <v>0.264856206805998</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6949152542372879</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.32</v>
+        <v>0.032</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0041703231084202</v>
+        <v>0.0005492481203007</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0302662561073227</v>
+        <v>-0.0013305174180026</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0197947431880689</v>
+        <v>0.0028673336503376</v>
       </c>
       <c r="N12" t="n">
-        <v>-1.30322597138133</v>
+        <v>1.71640037593985</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.24582680028423</v>
+        <v>0.258001467721793</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.576271186440678</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.033</v>
+        <v>1.68</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0006138655462184001</v>
+        <v>0.0757697807130033</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0010340027967252</v>
+        <v>-0.110115214244753</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0023939191766354</v>
+        <v>0.404565265560558</v>
       </c>
       <c r="N13" t="n">
-        <v>1.86019862490451</v>
+        <v>4.51010599482163</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.825927687523469</v>
+        <v>0.715694042236338</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.0105263157894737</v>
       </c>
       <c r="H14" t="n">
-        <v>0.949152542372881</v>
+        <v>0.5473684210526319</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.110377747252747</v>
+        <v>0.008304911323328701</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.272368670418887</v>
+        <v>-0.0500114103149247</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0581717245358644</v>
+        <v>0.105860624673015</v>
       </c>
       <c r="N14" t="n">
-        <v>-8.176129426129419</v>
+        <v>0.5190569577080471</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.938078439153469</v>
+        <v>0.975847734600087</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0111111111111111</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.533333333333333</v>
+        <v>0.854700854700855</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.7</v>
+        <v>10.01</v>
       </c>
       <c r="K15" t="n">
-        <v>0.08996305418719221</v>
+        <v>0.0436625799377809</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.0051978077628038</v>
       </c>
       <c r="M15" t="n">
-        <v>0.173580213980345</v>
+        <v>0.071382173049723</v>
       </c>
       <c r="N15" t="n">
-        <v>5.29194436395248</v>
+        <v>0.436189609768041</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1839,35 +1839,35 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.978650238491259</v>
+        <v>0.594887286424849</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.885714285714286</v>
+        <v>0.228813559322034</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>9.970000000000001</v>
+        <v>0.022</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0498521383075518</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0105091682996188</v>
+        <v>-0.0003681709090161</v>
       </c>
       <c r="M16" t="n">
-        <v>0.08119038327983551</v>
+        <v>0.0002492113810391</v>
       </c>
       <c r="N16" t="n">
-        <v>0.500021447417772</v>
+        <v>0</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.208593138757176</v>
+        <v>0.604626726032946</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.008474576271186401</v>
       </c>
       <c r="H17" t="n">
-        <v>0.245283018867925</v>
+        <v>0.677966101694915</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.022</v>
+        <v>132.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0001425644028103</v>
+        <v>-0.0830868971792539</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0001427035226593</v>
+        <v>-3.3305121399721</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0005006850364447</v>
+        <v>2.99112829845314</v>
       </c>
       <c r="N17" t="n">
-        <v>0.648020012774112</v>
+        <v>-0.0627070922107576</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,43 +2010,43 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.549427088601532</v>
+        <v>0.149066073499473</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0094339622641509</v>
+        <v>0.9090909090909089</v>
       </c>
       <c r="H18" t="n">
-        <v>0.688679245283019</v>
+        <v>0.190909090909091</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J18" t="n">
-        <v>131.5</v>
+        <v>0.005</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-3.98657278347709</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>4.0071217624499</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2112,29 +2112,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.320535547034346</v>
+        <v>0.998248049769049</v>
       </c>
       <c r="G19" t="n">
-        <v>0.928571428571429</v>
+        <v>0.432203389830508</v>
       </c>
       <c r="H19" t="n">
-        <v>0.183673469387755</v>
+        <v>0.09322033898305079</v>
       </c>
       <c r="I19" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.0001043273371297</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,46 +2192,46 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.981172052671847</v>
+        <v>0.135154257394566</v>
       </c>
       <c r="G20" t="n">
-        <v>0.405660377358491</v>
+        <v>0.127118644067797</v>
       </c>
       <c r="H20" t="n">
-        <v>0.10377358490566</v>
+        <v>0.813559322033898</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.002</v>
+        <v>0.2355</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.001294126683683</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.0065809998693631</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>0.549523007933342</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2294,35 +2294,35 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.636023785194651</v>
+        <v>0.823655816415083</v>
       </c>
       <c r="G21" t="n">
-        <v>0.141509433962264</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.811320754716981</v>
+        <v>0.573913043478261</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2185</v>
+        <v>7.83</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.0061931938253002</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0063713522830973</v>
+        <v>-0.0066617116438107</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0013971817271525</v>
+        <v>0.0199743240008249</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>0.079095706581101</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Mana_1b</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,7 +2370,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2385,35 +2381,35 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.952133575843381</v>
+        <v>0.162253765102539</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.0677966101694915</v>
       </c>
       <c r="H22" t="n">
-        <v>0.611650485436893</v>
+        <v>0.822033898305085</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>7.83</v>
+        <v>0.24435</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0139408396946565</v>
+        <v>0.0020987857562285</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-0.0010182362664723</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0298326104172351</v>
+        <v>0.0068347593001533</v>
       </c>
       <c r="N22" t="n">
-        <v>0.1780439296891</v>
+        <v>0.858926030787192</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Mana_1b</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2472,32 +2472,32 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.657502389751618</v>
+        <v>0.510580621333721</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0754716981132075</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.80188679245283</v>
+        <v>0.610169491525424</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.233</v>
+        <v>0.36</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0067405290357634</v>
+        <v>-0.0073590863885311</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0021954095638245</v>
+        <v>0.009399565985837501</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -2552,46 +2552,46 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.783821259072973</v>
+        <v>0.06996388919016459</v>
       </c>
       <c r="G24" t="n">
-        <v>0.283018867924528</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.292452830188679</v>
+        <v>0.406779661016949</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>0.032</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.0004259475218658</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.07120301846223159</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>0.0009691581320144</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.3310860058309</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.943285356594521</v>
+        <v>0.5</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.622641509433962</v>
+        <v>0.923728813559322</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.353</v>
+        <v>1.735</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0059746455834242</v>
+        <v>-0.0029987684729064</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0151222022139492</v>
+        <v>-0.07024038461538459</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.060206043956044</v>
       </c>
       <c r="N25" t="n">
-        <v>-1.69253415961026</v>
+        <v>-0.172839681435528</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,46 +2734,46 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>1</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>0.0437470721693996</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.415094339622642</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.032</v>
+        <v>0.41</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0004984080312376</v>
+        <v>0.010444818052866</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>-0.0401615611289345</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0010021621204055</v>
+        <v>0.0411445192964933</v>
       </c>
       <c r="N26" t="n">
-        <v>1.55752509761758</v>
+        <v>2.54751659826</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2811,11 +2811,7 @@
           <t>Mana_1b</t>
         </is>
       </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2825,46 +2821,46 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
         <v>1</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>0.8227684583909241</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.924528301886792</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.67</v>
+        <v>113</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0367285576735934</v>
+        <v>1.93978952038588</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.103885799749717</v>
+        <v>-24.3315343067161</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0309268537420657</v>
+        <v>4.95230182151799</v>
       </c>
       <c r="N27" t="n">
-        <v>-2.1993148307541</v>
+        <v>1.71662789414679</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2869,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2902,11 +2898,7 @@
           <t>Mana_1b</t>
         </is>
       </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2916,7 +2908,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2931,7 +2923,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.5</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2943,19 +2935,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.43</v>
+        <v>6.11</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0064247716379016</v>
+        <v>0.169779274359908</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.09434316962263881</v>
+        <v>-0.473754916416059</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0411445192964933</v>
+        <v>0.309475213567238</v>
       </c>
       <c r="N28" t="n">
-        <v>-1.4941329390469</v>
+        <v>2.7787115279854</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2956,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -3003,11 +2995,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -3018,7 +3010,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.59675202974633</v>
+        <v>0.015911563693245</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -3030,19 +3022,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>112</v>
+        <v>0.4755</v>
       </c>
       <c r="K29" t="n">
-        <v>0.414837184112</v>
+        <v>-0.0219949817518248</v>
       </c>
       <c r="L29" t="n">
-        <v>-24.3315343067161</v>
+        <v>-0.0423453352920399</v>
       </c>
       <c r="M29" t="n">
-        <v>6.67765734736388</v>
+        <v>-0.009845289469844601</v>
       </c>
       <c r="N29" t="n">
-        <v>0.370390342957143</v>
+        <v>-4.62565336526284</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3051,7 +3043,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3090,11 +3082,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -3105,31 +3097,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.40324797025367</v>
+        <v>0.735200595787496</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>6.11</v>
+        <v>112.5</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.0801637892898151</v>
+        <v>0.1479943273906</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.473754916416059</v>
+        <v>-1.73846091376456</v>
       </c>
       <c r="M30" t="n">
-        <v>0.181686013415509</v>
+        <v>1.98744012834542</v>
       </c>
       <c r="N30" t="n">
-        <v>-1.31200964467783</v>
+        <v>0.131550513236089</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3138,7 +3130,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3169,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3192,7 +3184,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.023801977363936</v>
+        <v>0.360257393568128</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3204,19 +3196,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.511</v>
+        <v>6.215</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0262106952925148</v>
+        <v>-0.0205059755419678</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0483809396479216</v>
+        <v>-0.113638155395107</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.0089196803175224</v>
+        <v>0.07246255491235</v>
       </c>
       <c r="N31" t="n">
-        <v>-5.12929457779154</v>
+        <v>-0.329943291101653</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3225,7 +3217,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3255,180 +3247,6 @@
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Mangatewainui at Hardies</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>10</v>
-      </c>
-      <c r="D32" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>0.583032292955724</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.888888888888889</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>112</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.0746897188956369</v>
-      </c>
-      <c r="L32" t="n">
-        <v>-2.5587052199148</v>
-      </c>
-      <c r="M32" t="n">
-        <v>2.09346243798221</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0.0666872490139615</v>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>As likely as not improving</t>
-        </is>
-      </c>
-      <c r="Q32" t="n">
-        <v>1871908</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5548511.18</v>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>Upper Manawatu</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>Mana_1b</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Mangatewainui at Hardies</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>10</v>
-      </c>
-      <c r="D33" t="b">
-        <v>0</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>0.125726093254011</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-0.0508198324451732</v>
-      </c>
-      <c r="L33" t="n">
-        <v>-0.154603074477152</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.049393332432774</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-0.826338738945905</v>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>Unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q33" t="n">
-        <v>1871908</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5548511.18</v>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>Upper Manawatu</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>Mana_1b</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MangatewainuiatHardies_39087d25ac.xlsx
+++ b/trend_results/Rivers/MangatewainuiatHardies_39087d25ac.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="63">
   <si>
     <t>site name</t>
   </si>
@@ -148,40 +148,34 @@
     <t>RepSite</t>
   </si>
   <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
     <t>Likely improving</t>
   </si>
   <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
     <t>As likely as not improving</t>
   </si>
   <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
     <t>Unlikely improving</t>
   </si>
   <si>
+    <t>Very likely increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely increasing</t>
+  </si>
+  <si>
     <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely likely increasing</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
   </si>
   <si>
     <t>Tararua District</t>
@@ -660,31 +654,31 @@
         <v>39</v>
       </c>
       <c r="F2">
-        <v>0.704190307624912</v>
+        <v>0.097322235750239</v>
       </c>
       <c r="G2">
-        <v>0.0196078431372549</v>
+        <v>0.02</v>
       </c>
       <c r="H2">
-        <v>0.745098039215686</v>
+        <v>0.86</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="K2">
-        <v>0.0823872180451128</v>
+        <v>-0.170677570093458</v>
       </c>
       <c r="L2">
-        <v>-0.181832098271984</v>
+        <v>-0.357739378136504</v>
       </c>
       <c r="M2">
-        <v>0.351418993558013</v>
+        <v>0.0482227164635152</v>
       </c>
       <c r="N2">
-        <v>4.68109193438141</v>
+        <v>-9.58862753334034</v>
       </c>
       <c r="O2" t="s">
         <v>43</v>
@@ -699,19 +693,19 @@
         <v>5548511.18</v>
       </c>
       <c r="S2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V2" t="s">
+        <v>57</v>
+      </c>
+      <c r="W2" t="s">
         <v>58</v>
-      </c>
-      <c r="V2" t="s">
-        <v>59</v>
-      </c>
-      <c r="W2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -728,34 +722,34 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.891269865905308</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.862068965517241</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.195</v>
+        <v>10.17</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.0334478021978022</v>
       </c>
       <c r="L3">
-        <v>-0.0413067686455214</v>
+        <v>-0.009974879355631299</v>
       </c>
       <c r="M3">
-        <v>0.0801750859848981</v>
+        <v>0.110557109114818</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.328886943931192</v>
       </c>
       <c r="O3" t="s">
         <v>43</v>
@@ -770,19 +764,19 @@
         <v>5548511.18</v>
       </c>
       <c r="S3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V3" t="s">
+        <v>57</v>
+      </c>
+      <c r="W3" t="s">
         <v>59</v>
-      </c>
-      <c r="W3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -799,16 +793,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4">
-        <v>0.346975731452531</v>
+        <v>0.7647615648892681</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.389830508474576</v>
+        <v>0.406779661016949</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -817,16 +811,16 @@
         <v>0.021</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>-0.000334478021978</v>
       </c>
       <c r="L4">
-        <v>-0.0007051158301158</v>
+        <v>-0.0016097162841642</v>
       </c>
       <c r="M4">
-        <v>0.0011582793724222</v>
+        <v>0.0004812918407294</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>-1.59275248560963</v>
       </c>
       <c r="O4" t="s">
         <v>43</v>
@@ -841,19 +835,19 @@
         <v>5548511.18</v>
       </c>
       <c r="S4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -867,43 +861,43 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5">
-        <v>0.442467978937887</v>
+        <v>0.508029020182666</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.796610169491525</v>
+        <v>0.879310344827586</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>132</v>
+        <v>132.4</v>
       </c>
       <c r="K5">
-        <v>3.51201923076923</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>-7.86343392947883</v>
+        <v>-21.2872602717473</v>
       </c>
       <c r="M5">
-        <v>11.96550667365</v>
+        <v>15.9829943674252</v>
       </c>
       <c r="N5">
-        <v>2.66062062937063</v>
+        <v>0</v>
       </c>
       <c r="O5" t="s">
         <v>43</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q5">
         <v>1871908</v>
@@ -912,19 +906,19 @@
         <v>5548511.18</v>
       </c>
       <c r="S5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -944,16 +938,16 @@
         <v>41</v>
       </c>
       <c r="F6">
-        <v>0.236585934683938</v>
+        <v>0.727179502254933</v>
       </c>
       <c r="G6">
-        <v>0.87037037037037</v>
+        <v>0.8545454545454541</v>
       </c>
       <c r="H6">
-        <v>0.259259259259259</v>
+        <v>0.163636363636364</v>
       </c>
       <c r="I6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0.005</v>
@@ -974,7 +968,7 @@
         <v>43</v>
       </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q6">
         <v>1871908</v>
@@ -983,19 +977,19 @@
         <v>5548511.18</v>
       </c>
       <c r="S6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1015,13 +1009,13 @@
         <v>42</v>
       </c>
       <c r="F7">
-        <v>0.979187104404</v>
+        <v>0.99498773109668</v>
       </c>
       <c r="G7">
-        <v>0.559322033898305</v>
+        <v>0.627118644067797</v>
       </c>
       <c r="H7">
-        <v>0.11864406779661</v>
+        <v>0.101694915254237</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1054,19 +1048,19 @@
         <v>5548511.18</v>
       </c>
       <c r="S7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1086,10 +1080,10 @@
         <v>39</v>
       </c>
       <c r="F8">
-        <v>0.0036345044985847</v>
+        <v>0.192617927201847</v>
       </c>
       <c r="G8">
-        <v>0.101694915254237</v>
+        <v>0.11864406779661</v>
       </c>
       <c r="H8">
         <v>0.864406779661017</v>
@@ -1098,19 +1092,19 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.226</v>
+        <v>0.211</v>
       </c>
       <c r="K8">
-        <v>0.0355540017804648</v>
+        <v>0.0142689284399811</v>
       </c>
       <c r="L8">
-        <v>0.0185804043614651</v>
+        <v>-0.0073570226374638</v>
       </c>
       <c r="M8">
-        <v>0.0614085079043877</v>
+        <v>0.0356094244605649</v>
       </c>
       <c r="N8">
-        <v>15.7318591948959</v>
+        <v>6.76252532700525</v>
       </c>
       <c r="O8" t="s">
         <v>43</v>
@@ -1125,19 +1119,19 @@
         <v>5548511.18</v>
       </c>
       <c r="S8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1157,31 +1151,31 @@
         <v>39</v>
       </c>
       <c r="F9">
-        <v>0.0075254702103699</v>
+        <v>0.901216315307207</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.736842105263158</v>
+        <v>0.741379310344828</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.9</v>
+        <v>7.95</v>
       </c>
       <c r="K9">
-        <v>-0.06522321428571549</v>
+        <v>0.027462406015037</v>
       </c>
       <c r="L9">
-        <v>-0.104357142857143</v>
+        <v>-0.0080399481145142</v>
       </c>
       <c r="M9">
-        <v>-0.0203774664920378</v>
+        <v>0.06805900621118</v>
       </c>
       <c r="N9">
-        <v>-0.82561030741412</v>
+        <v>0.345439069371535</v>
       </c>
       <c r="O9" t="s">
         <v>43</v>
@@ -1196,16 +1190,16 @@
         <v>5548511.18</v>
       </c>
       <c r="S9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1225,31 +1219,31 @@
         <v>39</v>
       </c>
       <c r="F10">
-        <v>0.0055558404292693</v>
+        <v>0.192617927201847</v>
       </c>
       <c r="G10">
-        <v>0.0338983050847458</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0.949152542372881</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.235</v>
+        <v>0.231</v>
       </c>
       <c r="K10">
-        <v>0.0380886847527473</v>
+        <v>0.008636314548937899</v>
       </c>
       <c r="L10">
-        <v>0.0079548815496066</v>
+        <v>-0.0061080410376819</v>
       </c>
       <c r="M10">
-        <v>0.0600797049739343</v>
+        <v>0.040729527852231</v>
       </c>
       <c r="N10">
-        <v>16.2079509586159</v>
+        <v>3.73866430689952</v>
       </c>
       <c r="O10" t="s">
         <v>43</v>
@@ -1264,19 +1258,19 @@
         <v>5548511.18</v>
       </c>
       <c r="S10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V10" t="s">
+        <v>57</v>
+      </c>
+      <c r="W10" t="s">
         <v>59</v>
-      </c>
-      <c r="W10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1296,37 +1290,37 @@
         <v>39</v>
       </c>
       <c r="F11">
-        <v>0.0475987980218213</v>
+        <v>0.07392756892108571</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.6610169491525421</v>
+        <v>0.6949152542372879</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="K11">
-        <v>0.0437862137862138</v>
+        <v>0.0227140042619919</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-0.0028147702742669</v>
       </c>
       <c r="M11">
-        <v>0.07483526266172311</v>
+        <v>0.056692835174356</v>
       </c>
       <c r="N11">
-        <v>12.1628371628372</v>
+        <v>6.48971550342625</v>
       </c>
       <c r="O11" t="s">
         <v>43</v>
       </c>
       <c r="P11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="Q11">
         <v>1871908</v>
@@ -1335,19 +1329,19 @@
         <v>5548511.18</v>
       </c>
       <c r="S11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W11" t="s">
         <v>59</v>
-      </c>
-      <c r="W11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1364,16 +1358,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F12">
-        <v>0.264856206805998</v>
+        <v>0.453089138074265</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.576271186440678</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1382,16 +1376,16 @@
         <v>0.032</v>
       </c>
       <c r="K12">
-        <v>0.0005492481203007</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>-0.0013305174180026</v>
+        <v>-0.0017773159816758</v>
       </c>
       <c r="M12">
-        <v>0.0028673336503376</v>
+        <v>0.0022823281297953</v>
       </c>
       <c r="N12">
-        <v>1.71640037593985</v>
+        <v>0</v>
       </c>
       <c r="O12" t="s">
         <v>43</v>
@@ -1406,19 +1400,19 @@
         <v>5548511.18</v>
       </c>
       <c r="S12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V12" t="s">
+        <v>57</v>
+      </c>
+      <c r="W12" t="s">
         <v>59</v>
-      </c>
-      <c r="W12" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1438,13 +1432,13 @@
         <v>39</v>
       </c>
       <c r="F13">
-        <v>0.258001467721793</v>
+        <v>0.0057699942451294</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.966101694915254</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1453,22 +1447,22 @@
         <v>1.68</v>
       </c>
       <c r="K13">
-        <v>0.0757697807130033</v>
+        <v>0.335106499790019</v>
       </c>
       <c r="L13">
-        <v>-0.110115214244753</v>
+        <v>0.186382567469711</v>
       </c>
       <c r="M13">
-        <v>0.404565265560558</v>
+        <v>0.571885095663257</v>
       </c>
       <c r="N13">
-        <v>4.51010599482163</v>
+        <v>19.9468154636916</v>
       </c>
       <c r="O13" t="s">
         <v>43</v>
       </c>
       <c r="P13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="Q13">
         <v>1871908</v>
@@ -1477,19 +1471,19 @@
         <v>5548511.18</v>
       </c>
       <c r="S13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1509,13 +1503,13 @@
         <v>39</v>
       </c>
       <c r="F14">
-        <v>0.715694042236338</v>
+        <v>0.324722140439339</v>
       </c>
       <c r="G14">
-        <v>0.0105263157894737</v>
+        <v>0.0104166666666667</v>
       </c>
       <c r="H14">
-        <v>0.5473684210526319</v>
+        <v>0.572916666666667</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1524,22 +1518,22 @@
         <v>1.6</v>
       </c>
       <c r="K14">
-        <v>0.008304911323328701</v>
+        <v>-0.0110185518504484</v>
       </c>
       <c r="L14">
-        <v>-0.0500114103149247</v>
+        <v>-0.0682973663869488</v>
       </c>
       <c r="M14">
-        <v>0.105860624673015</v>
+        <v>0.0368082783048455</v>
       </c>
       <c r="N14">
-        <v>0.5190569577080471</v>
+        <v>-0.688659490653025</v>
       </c>
       <c r="O14" t="s">
         <v>43</v>
       </c>
       <c r="P14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="Q14">
         <v>1871908</v>
@@ -1548,19 +1542,19 @@
         <v>5548511.18</v>
       </c>
       <c r="S14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U14" t="s">
+        <v>56</v>
+      </c>
+      <c r="V14" t="s">
+        <v>57</v>
+      </c>
+      <c r="W14" t="s">
         <v>58</v>
-      </c>
-      <c r="V14" t="s">
-        <v>59</v>
-      </c>
-      <c r="W14" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1580,31 +1574,31 @@
         <v>39</v>
       </c>
       <c r="F15">
-        <v>0.975847734600087</v>
+        <v>0.973139841006792</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.854700854700855</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.01</v>
+        <v>10.055</v>
       </c>
       <c r="K15">
-        <v>0.0436625799377809</v>
+        <v>0.0370314952904236</v>
       </c>
       <c r="L15">
-        <v>0.0051978077628038</v>
+        <v>0.0049902617721724</v>
       </c>
       <c r="M15">
-        <v>0.071382173049723</v>
+        <v>0.0686546196251875</v>
       </c>
       <c r="N15">
-        <v>0.436189609768041</v>
+        <v>0.368289361416446</v>
       </c>
       <c r="O15" t="s">
         <v>43</v>
@@ -1619,19 +1613,19 @@
         <v>5548511.18</v>
       </c>
       <c r="S15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V15" t="s">
+        <v>57</v>
+      </c>
+      <c r="W15" t="s">
         <v>59</v>
-      </c>
-      <c r="W15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1651,28 +1645,28 @@
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.594887286424849</v>
+        <v>0.643895029730697</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.228813559322034</v>
+        <v>0.235294117647059</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>-0.0003681709090161</v>
+        <v>-0.0004288649706457</v>
       </c>
       <c r="M16">
-        <v>0.0002492113810391</v>
+        <v>0.0002399120687353</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1681,7 +1675,7 @@
         <v>43</v>
       </c>
       <c r="P16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q16">
         <v>1871908</v>
@@ -1690,19 +1684,19 @@
         <v>5548511.18</v>
       </c>
       <c r="S16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1722,37 +1716,37 @@
         <v>39</v>
       </c>
       <c r="F17">
-        <v>0.604626726032946</v>
+        <v>0.221202324858694</v>
       </c>
       <c r="G17">
         <v>0.008474576271186401</v>
       </c>
       <c r="H17">
-        <v>0.677966101694915</v>
+        <v>0.703389830508475</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>132.5</v>
+        <v>130</v>
       </c>
       <c r="K17">
-        <v>-0.0830868971792539</v>
+        <v>1.27481362824983</v>
       </c>
       <c r="L17">
-        <v>-3.3305121399721</v>
+        <v>-2.01145779504911</v>
       </c>
       <c r="M17">
-        <v>2.99112829845314</v>
+        <v>6.0692215304929</v>
       </c>
       <c r="N17">
-        <v>-0.0627070922107576</v>
+        <v>0.980625867884482</v>
       </c>
       <c r="O17" t="s">
         <v>43</v>
       </c>
       <c r="P17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q17">
         <v>1871908</v>
@@ -1761,19 +1755,19 @@
         <v>5548511.18</v>
       </c>
       <c r="S17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1793,13 +1787,13 @@
         <v>41</v>
       </c>
       <c r="F18">
-        <v>0.149066073499473</v>
+        <v>0.311303463582422</v>
       </c>
       <c r="G18">
-        <v>0.9090909090909089</v>
+        <v>0.901785714285714</v>
       </c>
       <c r="H18">
-        <v>0.190909090909091</v>
+        <v>0.196428571428571</v>
       </c>
       <c r="I18">
         <v>11</v>
@@ -1823,7 +1817,7 @@
         <v>43</v>
       </c>
       <c r="P18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q18">
         <v>1871908</v>
@@ -1832,19 +1826,19 @@
         <v>5548511.18</v>
       </c>
       <c r="S18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1864,25 +1858,25 @@
         <v>42</v>
       </c>
       <c r="F19">
-        <v>0.998248049769049</v>
+        <v>0.999497291402706</v>
       </c>
       <c r="G19">
-        <v>0.432203389830508</v>
+        <v>0.512605042016807</v>
       </c>
       <c r="H19">
-        <v>0.09322033898305079</v>
+        <v>0.0840336134453782</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>-0.0001043273371297</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1894,7 +1888,7 @@
         <v>43</v>
       </c>
       <c r="P19" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q19">
         <v>1871908</v>
@@ -1903,19 +1897,19 @@
         <v>5548511.18</v>
       </c>
       <c r="S19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1932,40 +1926,40 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F20">
-        <v>0.135154257394566</v>
+        <v>0.307306744072956</v>
       </c>
       <c r="G20">
-        <v>0.127118644067797</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="H20">
-        <v>0.813559322033898</v>
+        <v>0.798319327731092</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.2355</v>
+        <v>0.211</v>
       </c>
       <c r="K20">
-        <v>0.001294126683683</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>-0.002485424288365</v>
       </c>
       <c r="M20">
-        <v>0.0065809998693631</v>
+        <v>0.0029989800044059</v>
       </c>
       <c r="N20">
-        <v>0.549523007933342</v>
+        <v>0</v>
       </c>
       <c r="O20" t="s">
         <v>43</v>
       </c>
       <c r="P20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q20">
         <v>1871908</v>
@@ -1974,19 +1968,19 @@
         <v>5548511.18</v>
       </c>
       <c r="S20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2006,37 +2000,37 @@
         <v>39</v>
       </c>
       <c r="F21">
-        <v>0.823655816415083</v>
+        <v>0.984858309263276</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.573913043478261</v>
+        <v>0.581196581196581</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.83</v>
+        <v>7.87</v>
       </c>
       <c r="K21">
-        <v>0.0061931938253002</v>
+        <v>0.0171545988258317</v>
       </c>
       <c r="L21">
-        <v>-0.0066617116438107</v>
+        <v>0.0047262365737895</v>
       </c>
       <c r="M21">
-        <v>0.0199743240008249</v>
+        <v>0.029840104147069</v>
       </c>
       <c r="N21">
-        <v>0.079095706581101</v>
+        <v>0.217974572119844</v>
       </c>
       <c r="O21" t="s">
         <v>43</v>
       </c>
       <c r="P21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q21">
         <v>1871908</v>
@@ -2045,16 +2039,16 @@
         <v>5548511.18</v>
       </c>
       <c r="S21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2074,31 +2068,31 @@
         <v>42</v>
       </c>
       <c r="F22">
-        <v>0.162253765102539</v>
+        <v>0.416552502327649</v>
       </c>
       <c r="G22">
-        <v>0.0677966101694915</v>
+        <v>0.0672268907563025</v>
       </c>
       <c r="H22">
-        <v>0.822033898305085</v>
+        <v>0.8067226890756301</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.24435</v>
+        <v>0.231</v>
       </c>
       <c r="K22">
-        <v>0.0020987857562285</v>
+        <v>0.0005041407867494</v>
       </c>
       <c r="L22">
-        <v>-0.0010182362664723</v>
+        <v>-0.0024790395463133</v>
       </c>
       <c r="M22">
-        <v>0.0068347593001533</v>
+        <v>0.003444747462376</v>
       </c>
       <c r="N22">
-        <v>0.858926030787192</v>
+        <v>0.218242764826616</v>
       </c>
       <c r="O22" t="s">
         <v>43</v>
@@ -2113,19 +2107,19 @@
         <v>5548511.18</v>
       </c>
       <c r="S22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V22" t="s">
+        <v>57</v>
+      </c>
+      <c r="W22" t="s">
         <v>59</v>
-      </c>
-      <c r="W22" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2145,28 +2139,28 @@
         <v>40</v>
       </c>
       <c r="F23">
-        <v>0.510580621333721</v>
+        <v>0.5</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.610169491525424</v>
+        <v>0.546218487394958</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>-0.0073590863885311</v>
+        <v>-0.005014814920764</v>
       </c>
       <c r="M23">
-        <v>0.009399565985837501</v>
+        <v>0.0065520873055744</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2175,7 +2169,7 @@
         <v>43</v>
       </c>
       <c r="P23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q23">
         <v>1871908</v>
@@ -2184,19 +2178,19 @@
         <v>5548511.18</v>
       </c>
       <c r="S23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V23" t="s">
+        <v>57</v>
+      </c>
+      <c r="W23" t="s">
         <v>59</v>
-      </c>
-      <c r="W23" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2216,13 +2210,13 @@
         <v>39</v>
       </c>
       <c r="F24">
-        <v>0.06996388919016459</v>
+        <v>0.136445520827222</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.406779661016949</v>
+        <v>0.403361344537815</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2231,22 +2225,22 @@
         <v>0.032</v>
       </c>
       <c r="K24">
-        <v>0.0004259475218658</v>
+        <v>0.0003525579150579</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>-0.0001677191007598</v>
       </c>
       <c r="M24">
-        <v>0.0009691581320144</v>
+        <v>0.0009487012987012</v>
       </c>
       <c r="N24">
-        <v>1.3310860058309</v>
+        <v>1.10174348455599</v>
       </c>
       <c r="O24" t="s">
         <v>43</v>
       </c>
       <c r="P24" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q24">
         <v>1871908</v>
@@ -2255,19 +2249,19 @@
         <v>5548511.18</v>
       </c>
       <c r="S24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V24" t="s">
+        <v>57</v>
+      </c>
+      <c r="W24" t="s">
         <v>59</v>
-      </c>
-      <c r="W24" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2287,37 +2281,37 @@
         <v>39</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>0.166934376998617</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.923728813559322</v>
+        <v>0.907563025210084</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.735</v>
+        <v>1.7</v>
       </c>
       <c r="K25">
-        <v>-0.0029987684729064</v>
+        <v>0.0401373626373626</v>
       </c>
       <c r="L25">
-        <v>-0.07024038461538459</v>
+        <v>-0.025853834862093</v>
       </c>
       <c r="M25">
-        <v>0.060206043956044</v>
+        <v>0.110366593733257</v>
       </c>
       <c r="N25">
-        <v>-0.172839681435528</v>
+        <v>2.36102133160957</v>
       </c>
       <c r="O25" t="s">
         <v>43</v>
       </c>
       <c r="P25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q25">
         <v>1871908</v>
@@ -2326,19 +2320,19 @@
         <v>5548511.18</v>
       </c>
       <c r="S25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2358,7 +2352,7 @@
         <v>39</v>
       </c>
       <c r="F26">
-        <v>0.768783636774762</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2370,25 +2364,25 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="K26">
-        <v>0.010444818052866</v>
+        <v>0.0036247859382022</v>
       </c>
       <c r="L26">
         <v>-0.0401615611289345</v>
       </c>
       <c r="M26">
-        <v>0.0411445192964933</v>
+        <v>0.0286861672080036</v>
       </c>
       <c r="N26">
-        <v>2.54751659826</v>
+        <v>0.842973474000531</v>
       </c>
       <c r="O26" t="s">
         <v>43</v>
       </c>
       <c r="P26" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q26">
         <v>1871908</v>
@@ -2397,16 +2391,16 @@
         <v>5548511.18</v>
       </c>
       <c r="S26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2426,31 +2420,31 @@
         <v>39</v>
       </c>
       <c r="F27">
-        <v>0.59675202974633</v>
+        <v>0.84389180582834</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K27">
-        <v>1.93978952038588</v>
+        <v>2.63569091787708</v>
       </c>
       <c r="L27">
-        <v>-24.3315343067161</v>
+        <v>-2.67155647948519</v>
       </c>
       <c r="M27">
-        <v>4.95230182151799</v>
+        <v>4.95195699557175</v>
       </c>
       <c r="N27">
-        <v>1.71662789414679</v>
+        <v>2.35329546239025</v>
       </c>
       <c r="O27" t="s">
         <v>43</v>
@@ -2465,16 +2459,16 @@
         <v>5548511.18</v>
       </c>
       <c r="S27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2494,7 +2488,7 @@
         <v>39</v>
       </c>
       <c r="F28">
-        <v>0.768783636774762</v>
+        <v>0.986256831944245</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2509,22 +2503,22 @@
         <v>6.11</v>
       </c>
       <c r="K28">
-        <v>0.169779274359908</v>
+        <v>0.274069450002145</v>
       </c>
       <c r="L28">
-        <v>-0.473754916416059</v>
+        <v>0.147547700408439</v>
       </c>
       <c r="M28">
-        <v>0.309475213567238</v>
+        <v>0.338576789223528</v>
       </c>
       <c r="N28">
-        <v>2.7787115279854</v>
+        <v>4.4855883797405</v>
       </c>
       <c r="O28" t="s">
         <v>43</v>
       </c>
       <c r="P28" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="Q28">
         <v>1871908</v>
@@ -2533,16 +2527,16 @@
         <v>5548511.18</v>
       </c>
       <c r="S28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2562,7 +2556,7 @@
         <v>39</v>
       </c>
       <c r="F29">
-        <v>0.015911563693245</v>
+        <v>0.053702318165127</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2574,25 +2568,25 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0.4755</v>
+        <v>0.4395</v>
       </c>
       <c r="K29">
-        <v>-0.0219949817518248</v>
+        <v>-0.0140288065843621</v>
       </c>
       <c r="L29">
-        <v>-0.0423453352920399</v>
+        <v>-0.0316120133082689</v>
       </c>
       <c r="M29">
-        <v>-0.009845289469844601</v>
+        <v>-0.0022946561174749</v>
       </c>
       <c r="N29">
-        <v>-4.62565336526284</v>
+        <v>-3.19199239689696</v>
       </c>
       <c r="O29" t="s">
         <v>43</v>
       </c>
       <c r="P29" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="Q29">
         <v>1871908</v>
@@ -2601,16 +2595,16 @@
         <v>5548511.18</v>
       </c>
       <c r="S29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2627,16 +2621,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F30">
-        <v>0.735200595787496</v>
+        <v>0.463832060238859</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2645,22 +2639,22 @@
         <v>112.5</v>
       </c>
       <c r="K30">
-        <v>0.1479943273906</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>-1.73846091376456</v>
+        <v>-2.37089847310611</v>
       </c>
       <c r="M30">
-        <v>1.98744012834542</v>
+        <v>0.86639394778965</v>
       </c>
       <c r="N30">
-        <v>0.131550513236089</v>
+        <v>0</v>
       </c>
       <c r="O30" t="s">
         <v>43</v>
       </c>
       <c r="P30" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q30">
         <v>1871908</v>
@@ -2669,16 +2663,16 @@
         <v>5548511.18</v>
       </c>
       <c r="S30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2698,7 +2692,7 @@
         <v>39</v>
       </c>
       <c r="F31">
-        <v>0.360257393568128</v>
+        <v>0.704247481502542</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2713,16 +2707,16 @@
         <v>6.215</v>
       </c>
       <c r="K31">
-        <v>-0.0205059755419678</v>
+        <v>0.0644680760499432</v>
       </c>
       <c r="L31">
-        <v>-0.113638155395107</v>
+        <v>-0.0428626496475177</v>
       </c>
       <c r="M31">
-        <v>0.07246255491235</v>
+        <v>0.0987716454329992</v>
       </c>
       <c r="N31">
-        <v>-0.329943291101653</v>
+        <v>1.03729808608115</v>
       </c>
       <c r="O31" t="s">
         <v>43</v>
@@ -2737,16 +2731,16 @@
         <v>5548511.18</v>
       </c>
       <c r="S31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
